--- a/draft/chapter4.xlsx
+++ b/draft/chapter4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>albert-base-v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,79 @@
   <si>
     <t>rate(albert/bert)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스킹 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original tokens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input tokens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스킹할 토큰(전체의 15%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제로 마스킹(80%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 토큰으로 치환(10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 토큰 유지(10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>[MASK]</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -79,20 +152,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,18 +201,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B11" sqref="B11:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -405,32 +514,32 @@
     <col min="3" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4005120</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>23837184</v>
       </c>
       <c r="E4" s="1">
@@ -438,14 +547,14 @@
         <v>0.16801984663960307</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>7186944</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>85054464</v>
       </c>
       <c r="E5" s="1">
@@ -453,19 +562,264 @@
         <v>8.4498139921262691E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>11683584</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>109482240</v>
       </c>
       <c r="E6" s="1">
         <f>C6/D6</f>
         <v>0.10671670583283645</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2159</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6">
+        <v>103</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2159</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4687</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6">
+        <v>103</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4687</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1012</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1012</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1012</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <v>103</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3067</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1843</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10075</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3067</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1010</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="6">
+        <v>103</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1010</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
